--- a/curation/draft/collection/collection_specialization_LB_Local_Chem_Blood.xlsx
+++ b/curation/draft/collection/collection_specialization_LB_Local_Chem_Blood.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E117BF76-6D35-418D-B2F6-4E1B16FAB415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F679C2E4-314A-4B74-9E7F-E138C9A77C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6440" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6440" uniqueCount="690">
   <si>
     <t>package_date</t>
   </si>
@@ -2094,6 +2094,18 @@
   </si>
   <si>
     <t>Normal Range Lower Limit</t>
+  </si>
+  <si>
+    <t>LBCAT = CHEMISTRY</t>
+  </si>
+  <si>
+    <t>LBSPEC = BLOOD</t>
+  </si>
+  <si>
+    <t>LBMETHOD = DIPSTICK MEASUREMENT METHOD</t>
+  </si>
+  <si>
+    <t>LBSPEC = SERUM OR PLASMA</t>
   </si>
 </sst>
 </file>
@@ -2491,10 +2503,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="P3" sqref="P3"/>
+      <selection pane="bottomLeft" activeCell="AE343" sqref="AE343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2686,7 +2698,7 @@
         <v>44</v>
       </c>
       <c r="AE2" t="s">
-        <v>44</v>
+        <v>686</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
@@ -3392,7 +3404,7 @@
         <v>44</v>
       </c>
       <c r="AE13" t="s">
-        <v>44</v>
+        <v>686</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
@@ -4098,7 +4110,7 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s">
-        <v>44</v>
+        <v>686</v>
       </c>
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.25">
@@ -4804,7 +4816,7 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s">
-        <v>44</v>
+        <v>686</v>
       </c>
     </row>
     <row r="36" spans="2:31" x14ac:dyDescent="0.25">
@@ -5510,7 +5522,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s">
-        <v>44</v>
+        <v>686</v>
       </c>
     </row>
     <row r="47" spans="2:31" x14ac:dyDescent="0.25">
@@ -5755,7 +5767,7 @@
         <v>61</v>
       </c>
       <c r="AE50" t="s">
-        <v>61</v>
+        <v>687</v>
       </c>
     </row>
     <row r="51" spans="2:31" x14ac:dyDescent="0.25">
@@ -6216,7 +6228,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s">
-        <v>44</v>
+        <v>686</v>
       </c>
     </row>
     <row r="58" spans="2:31" x14ac:dyDescent="0.25">
@@ -6922,7 +6934,7 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s">
-        <v>44</v>
+        <v>686</v>
       </c>
     </row>
     <row r="69" spans="2:31" x14ac:dyDescent="0.25">
@@ -7167,7 +7179,7 @@
         <v>61</v>
       </c>
       <c r="AE72" t="s">
-        <v>61</v>
+        <v>687</v>
       </c>
     </row>
     <row r="73" spans="2:31" x14ac:dyDescent="0.25">
@@ -7628,7 +7640,7 @@
         <v>44</v>
       </c>
       <c r="AE79" t="s">
-        <v>44</v>
+        <v>686</v>
       </c>
     </row>
     <row r="80" spans="2:31" x14ac:dyDescent="0.25">
@@ -8334,7 +8346,7 @@
         <v>44</v>
       </c>
       <c r="AE90" t="s">
-        <v>44</v>
+        <v>686</v>
       </c>
     </row>
     <row r="91" spans="2:31" x14ac:dyDescent="0.25">
@@ -8579,7 +8591,7 @@
         <v>61</v>
       </c>
       <c r="AE94" t="s">
-        <v>61</v>
+        <v>687</v>
       </c>
     </row>
     <row r="95" spans="2:31" x14ac:dyDescent="0.25">
@@ -9040,7 +9052,7 @@
         <v>44</v>
       </c>
       <c r="AE101" t="s">
-        <v>44</v>
+        <v>686</v>
       </c>
     </row>
     <row r="102" spans="2:31" x14ac:dyDescent="0.25">
@@ -9285,7 +9297,7 @@
         <v>61</v>
       </c>
       <c r="AE105" t="s">
-        <v>61</v>
+        <v>687</v>
       </c>
     </row>
     <row r="106" spans="2:31" x14ac:dyDescent="0.25">
@@ -9672,7 +9684,7 @@
         <v>44</v>
       </c>
       <c r="AE111" t="s">
-        <v>44</v>
+        <v>686</v>
       </c>
     </row>
     <row r="112" spans="2:31" x14ac:dyDescent="0.25">
@@ -9917,7 +9929,7 @@
         <v>61</v>
       </c>
       <c r="AE115" t="s">
-        <v>61</v>
+        <v>687</v>
       </c>
     </row>
     <row r="116" spans="2:31" x14ac:dyDescent="0.25">
@@ -10378,7 +10390,7 @@
         <v>44</v>
       </c>
       <c r="AE122" t="s">
-        <v>44</v>
+        <v>686</v>
       </c>
     </row>
     <row r="123" spans="2:31" x14ac:dyDescent="0.25">
@@ -11084,7 +11096,7 @@
         <v>44</v>
       </c>
       <c r="AE133" t="s">
-        <v>44</v>
+        <v>686</v>
       </c>
     </row>
     <row r="134" spans="2:31" x14ac:dyDescent="0.25">
@@ -11790,7 +11802,7 @@
         <v>44</v>
       </c>
       <c r="AE144" t="s">
-        <v>44</v>
+        <v>686</v>
       </c>
     </row>
     <row r="145" spans="2:31" x14ac:dyDescent="0.25">
@@ -12496,7 +12508,7 @@
         <v>44</v>
       </c>
       <c r="AE155" t="s">
-        <v>44</v>
+        <v>686</v>
       </c>
     </row>
     <row r="156" spans="2:31" x14ac:dyDescent="0.25">
@@ -13202,7 +13214,7 @@
         <v>44</v>
       </c>
       <c r="AE166" t="s">
-        <v>44</v>
+        <v>686</v>
       </c>
     </row>
     <row r="167" spans="2:31" x14ac:dyDescent="0.25">
@@ -13447,7 +13459,7 @@
         <v>61</v>
       </c>
       <c r="AE170" t="s">
-        <v>61</v>
+        <v>687</v>
       </c>
     </row>
     <row r="171" spans="2:31" x14ac:dyDescent="0.25">
@@ -13728,7 +13740,7 @@
         <v>92</v>
       </c>
       <c r="AE174" t="s">
-        <v>92</v>
+        <v>688</v>
       </c>
     </row>
     <row r="175" spans="2:31" x14ac:dyDescent="0.25">
@@ -13979,7 +13991,7 @@
         <v>44</v>
       </c>
       <c r="AE178" t="s">
-        <v>44</v>
+        <v>686</v>
       </c>
     </row>
     <row r="179" spans="2:31" x14ac:dyDescent="0.25">
@@ -14224,7 +14236,7 @@
         <v>61</v>
       </c>
       <c r="AE182" t="s">
-        <v>61</v>
+        <v>689</v>
       </c>
     </row>
     <row r="183" spans="2:31" x14ac:dyDescent="0.25">
@@ -14537,7 +14549,7 @@
         <v>44</v>
       </c>
       <c r="AE187" t="s">
-        <v>44</v>
+        <v>686</v>
       </c>
     </row>
     <row r="188" spans="2:31" x14ac:dyDescent="0.25">
@@ -14782,7 +14794,7 @@
         <v>61</v>
       </c>
       <c r="AE191" t="s">
-        <v>61</v>
+        <v>689</v>
       </c>
     </row>
     <row r="192" spans="2:31" x14ac:dyDescent="0.25">
@@ -15243,7 +15255,7 @@
         <v>44</v>
       </c>
       <c r="AE198" t="s">
-        <v>44</v>
+        <v>686</v>
       </c>
     </row>
     <row r="199" spans="2:31" x14ac:dyDescent="0.25">
@@ -15488,7 +15500,7 @@
         <v>61</v>
       </c>
       <c r="AE202" t="s">
-        <v>61</v>
+        <v>689</v>
       </c>
     </row>
     <row r="203" spans="2:31" x14ac:dyDescent="0.25">
@@ -15875,7 +15887,7 @@
         <v>44</v>
       </c>
       <c r="AE208" t="s">
-        <v>44</v>
+        <v>686</v>
       </c>
     </row>
     <row r="209" spans="2:31" x14ac:dyDescent="0.25">
@@ -16120,7 +16132,7 @@
         <v>61</v>
       </c>
       <c r="AE212" t="s">
-        <v>61</v>
+        <v>687</v>
       </c>
     </row>
     <row r="213" spans="2:31" x14ac:dyDescent="0.25">
@@ -16581,7 +16593,7 @@
         <v>44</v>
       </c>
       <c r="AE219" t="s">
-        <v>44</v>
+        <v>686</v>
       </c>
     </row>
     <row r="220" spans="2:31" x14ac:dyDescent="0.25">
@@ -16826,7 +16838,7 @@
         <v>61</v>
       </c>
       <c r="AE223" t="s">
-        <v>61</v>
+        <v>689</v>
       </c>
     </row>
     <row r="224" spans="2:31" x14ac:dyDescent="0.25">
@@ -17287,7 +17299,7 @@
         <v>44</v>
       </c>
       <c r="AE230" t="s">
-        <v>44</v>
+        <v>686</v>
       </c>
     </row>
     <row r="231" spans="2:31" x14ac:dyDescent="0.25">
@@ -17532,7 +17544,7 @@
         <v>61</v>
       </c>
       <c r="AE234" t="s">
-        <v>61</v>
+        <v>689</v>
       </c>
     </row>
     <row r="235" spans="2:31" x14ac:dyDescent="0.25">
@@ -17993,7 +18005,7 @@
         <v>44</v>
       </c>
       <c r="AE241" t="s">
-        <v>44</v>
+        <v>686</v>
       </c>
     </row>
     <row r="242" spans="2:31" x14ac:dyDescent="0.25">
@@ -18238,7 +18250,7 @@
         <v>61</v>
       </c>
       <c r="AE245" t="s">
-        <v>61</v>
+        <v>689</v>
       </c>
     </row>
     <row r="246" spans="2:31" x14ac:dyDescent="0.25">
@@ -18625,7 +18637,7 @@
         <v>44</v>
       </c>
       <c r="AE251" t="s">
-        <v>44</v>
+        <v>686</v>
       </c>
     </row>
     <row r="252" spans="2:31" x14ac:dyDescent="0.25">
@@ -18870,7 +18882,7 @@
         <v>61</v>
       </c>
       <c r="AE255" t="s">
-        <v>61</v>
+        <v>689</v>
       </c>
     </row>
     <row r="256" spans="2:31" x14ac:dyDescent="0.25">
@@ -19331,7 +19343,7 @@
         <v>44</v>
       </c>
       <c r="AE262" t="s">
-        <v>44</v>
+        <v>686</v>
       </c>
     </row>
     <row r="263" spans="2:31" x14ac:dyDescent="0.25">
@@ -19576,7 +19588,7 @@
         <v>61</v>
       </c>
       <c r="AE266" t="s">
-        <v>61</v>
+        <v>689</v>
       </c>
     </row>
     <row r="267" spans="2:31" x14ac:dyDescent="0.25">
@@ -20037,7 +20049,7 @@
         <v>44</v>
       </c>
       <c r="AE273" t="s">
-        <v>44</v>
+        <v>686</v>
       </c>
     </row>
     <row r="274" spans="2:31" x14ac:dyDescent="0.25">
@@ -20282,7 +20294,7 @@
         <v>61</v>
       </c>
       <c r="AE277" t="s">
-        <v>61</v>
+        <v>687</v>
       </c>
     </row>
     <row r="278" spans="2:31" x14ac:dyDescent="0.25">
@@ -20743,7 +20755,7 @@
         <v>44</v>
       </c>
       <c r="AE284" t="s">
-        <v>44</v>
+        <v>686</v>
       </c>
     </row>
     <row r="285" spans="2:31" x14ac:dyDescent="0.25">
@@ -20988,7 +21000,7 @@
         <v>61</v>
       </c>
       <c r="AE288" t="s">
-        <v>61</v>
+        <v>689</v>
       </c>
     </row>
     <row r="289" spans="2:31" x14ac:dyDescent="0.25">
@@ -21449,7 +21461,7 @@
         <v>44</v>
       </c>
       <c r="AE295" t="s">
-        <v>44</v>
+        <v>686</v>
       </c>
     </row>
     <row r="296" spans="2:31" x14ac:dyDescent="0.25">
@@ -21694,7 +21706,7 @@
         <v>61</v>
       </c>
       <c r="AE299" t="s">
-        <v>61</v>
+        <v>689</v>
       </c>
     </row>
     <row r="300" spans="2:31" x14ac:dyDescent="0.25">
@@ -22155,7 +22167,7 @@
         <v>44</v>
       </c>
       <c r="AE306" t="s">
-        <v>44</v>
+        <v>686</v>
       </c>
     </row>
     <row r="307" spans="2:31" x14ac:dyDescent="0.25">
@@ -22400,7 +22412,7 @@
         <v>61</v>
       </c>
       <c r="AE310" t="s">
-        <v>61</v>
+        <v>689</v>
       </c>
     </row>
     <row r="311" spans="2:31" x14ac:dyDescent="0.25">
@@ -22861,7 +22873,7 @@
         <v>44</v>
       </c>
       <c r="AE317" t="s">
-        <v>44</v>
+        <v>686</v>
       </c>
     </row>
     <row r="318" spans="2:31" x14ac:dyDescent="0.25">
@@ -23106,7 +23118,7 @@
         <v>61</v>
       </c>
       <c r="AE321" t="s">
-        <v>61</v>
+        <v>687</v>
       </c>
     </row>
     <row r="322" spans="2:31" x14ac:dyDescent="0.25">
@@ -23567,7 +23579,7 @@
         <v>44</v>
       </c>
       <c r="AE328" t="s">
-        <v>44</v>
+        <v>686</v>
       </c>
     </row>
     <row r="329" spans="2:31" x14ac:dyDescent="0.25">
@@ -23812,7 +23824,7 @@
         <v>61</v>
       </c>
       <c r="AE332" t="s">
-        <v>61</v>
+        <v>687</v>
       </c>
     </row>
     <row r="333" spans="2:31" x14ac:dyDescent="0.25">
@@ -24273,7 +24285,7 @@
         <v>44</v>
       </c>
       <c r="AE339" t="s">
-        <v>44</v>
+        <v>686</v>
       </c>
     </row>
     <row r="340" spans="2:31" x14ac:dyDescent="0.25">
@@ -24518,7 +24530,7 @@
         <v>61</v>
       </c>
       <c r="AE343" t="s">
-        <v>61</v>
+        <v>689</v>
       </c>
     </row>
     <row r="344" spans="2:31" x14ac:dyDescent="0.25">
